--- a/Code/Results/Cases/Case_8_59/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_59/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.835338594423064</v>
+        <v>1.775399142930979</v>
       </c>
       <c r="C2">
-        <v>0.5642686606030622</v>
+        <v>0.603367106792831</v>
       </c>
       <c r="D2">
-        <v>0.04407474845937287</v>
+        <v>0.04660547840528295</v>
       </c>
       <c r="E2">
-        <v>0.2933974906137777</v>
+        <v>0.2941866374038824</v>
       </c>
       <c r="F2">
-        <v>0.554468687581803</v>
+        <v>0.5240147650777018</v>
       </c>
       <c r="G2">
-        <v>0.0007896822450610921</v>
+        <v>0.0007121412960373122</v>
       </c>
       <c r="H2">
-        <v>0.001974954016828123</v>
+        <v>0.002014237385282946</v>
       </c>
       <c r="I2">
-        <v>0.004808534629747285</v>
+        <v>0.005106225173595824</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2491322239093776</v>
+        <v>0.2259794899412704</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1393408148545987</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04690890947835058</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8559212374401923</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7249900611824245</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.591113829848069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8555361592393993</v>
+      </c>
+      <c r="R2">
+        <v>0.7366480952076913</v>
+      </c>
+      <c r="S2">
+        <v>1.486951756424361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.599040241619122</v>
+        <v>1.553974801021241</v>
       </c>
       <c r="C3">
-        <v>0.4977926148678762</v>
+        <v>0.5291673471166405</v>
       </c>
       <c r="D3">
-        <v>0.03937264442433275</v>
+        <v>0.04106371708964218</v>
       </c>
       <c r="E3">
-        <v>0.2616571506613283</v>
+        <v>0.2637820679825609</v>
       </c>
       <c r="F3">
-        <v>0.5069727090083092</v>
+        <v>0.4801929957835966</v>
       </c>
       <c r="G3">
-        <v>0.0007928192386056313</v>
+        <v>0.0001501574784667781</v>
       </c>
       <c r="H3">
-        <v>0.0009598441023852544</v>
+        <v>0.001051537854228179</v>
       </c>
       <c r="I3">
-        <v>0.003274019454519106</v>
+        <v>0.003793811701505057</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2449309793679681</v>
+        <v>0.2234397517591518</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.143229504715837</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04218267290398359</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7457921524162359</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7383856246944447</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.477907350812728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7458311776898583</v>
+      </c>
+      <c r="R3">
+        <v>0.7423971840102652</v>
+      </c>
+      <c r="S3">
+        <v>1.384094237821841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.453320070240949</v>
+        <v>1.417078577331978</v>
       </c>
       <c r="C4">
-        <v>0.4571869166128977</v>
+        <v>0.4839385360444908</v>
       </c>
       <c r="D4">
-        <v>0.03648796180008418</v>
+        <v>0.03767483595102306</v>
       </c>
       <c r="E4">
-        <v>0.2421467068065652</v>
+        <v>0.2450858955153521</v>
       </c>
       <c r="F4">
-        <v>0.478283020945149</v>
+        <v>0.4534990478963863</v>
       </c>
       <c r="G4">
-        <v>0.0007948147898483057</v>
+        <v>9.488687904346538E-06</v>
       </c>
       <c r="H4">
-        <v>0.0005026307166999811</v>
+        <v>0.0006002364620791845</v>
       </c>
       <c r="I4">
-        <v>0.002489117591089496</v>
+        <v>0.003098193141843897</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2425716023568896</v>
+        <v>0.2219596824062009</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1456782598550426</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03978484264112225</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6781739775030999</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7472274227809095</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.409766021049592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6784251357832787</v>
+      </c>
+      <c r="R4">
+        <v>0.7465527835444874</v>
+      </c>
+      <c r="S4">
+        <v>1.321428252337057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.392785602779639</v>
+        <v>1.360086191828572</v>
       </c>
       <c r="C5">
-        <v>0.4413218008207309</v>
+        <v>0.4662444971582147</v>
       </c>
       <c r="D5">
-        <v>0.03535508454791625</v>
+        <v>0.03634054770805761</v>
       </c>
       <c r="E5">
-        <v>0.2341790640181713</v>
+        <v>0.2374507497916554</v>
       </c>
       <c r="F5">
-        <v>0.4662477111592054</v>
+        <v>0.4422249105643417</v>
       </c>
       <c r="G5">
-        <v>0.0007956505529631669</v>
+        <v>5.785700002147731E-07</v>
       </c>
       <c r="H5">
-        <v>0.0003550931712146266</v>
+        <v>0.0004489404933480934</v>
       </c>
       <c r="I5">
-        <v>0.002262456895192333</v>
+        <v>0.002908911451293683</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2413403174178903</v>
+        <v>0.2210723879543153</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1465359677143141</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03885882193299395</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6505998464648215</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7512118244520565</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.380785724212245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6509270745541542</v>
+      </c>
+      <c r="R5">
+        <v>0.7486571323797406</v>
+      </c>
+      <c r="S5">
+        <v>1.294510139863633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.38151327850747</v>
+        <v>1.349422374881755</v>
       </c>
       <c r="C6">
-        <v>0.4394698902600283</v>
+        <v>0.4641204316633321</v>
       </c>
       <c r="D6">
-        <v>0.03521893778608387</v>
+        <v>0.03617267531280532</v>
       </c>
       <c r="E6">
-        <v>0.2328453752773356</v>
+        <v>0.236174104022389</v>
       </c>
       <c r="F6">
-        <v>0.463700497124151</v>
+        <v>0.4398132306471965</v>
       </c>
       <c r="G6">
-        <v>0.0007957963468203968</v>
+        <v>2.049070666559905E-06</v>
       </c>
       <c r="H6">
-        <v>0.0003324353565563598</v>
+        <v>0.0004252975036469486</v>
       </c>
       <c r="I6">
-        <v>0.00230321700469549</v>
+        <v>0.002971426951567935</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2407453309883856</v>
+        <v>0.2205570220827084</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1464901075993339</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03862095347796135</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6460043622684637</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7521668224110201</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.374120122269517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6463440315846682</v>
+      </c>
+      <c r="R6">
+        <v>0.749333202697386</v>
+      </c>
+      <c r="S6">
+        <v>1.288227193719678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.449185771655067</v>
+        <v>1.409601666074167</v>
       </c>
       <c r="C7">
-        <v>0.4591083141899048</v>
+        <v>0.4834402370445332</v>
       </c>
       <c r="D7">
-        <v>0.03661505234904894</v>
+        <v>0.03811452063815324</v>
       </c>
       <c r="E7">
-        <v>0.2420121775873341</v>
+        <v>0.2452707572532447</v>
       </c>
       <c r="F7">
-        <v>0.4766019674605886</v>
+        <v>0.4487974241350514</v>
       </c>
       <c r="G7">
-        <v>0.0007948419249386258</v>
+        <v>0.0001432038087885168</v>
       </c>
       <c r="H7">
-        <v>0.0004989503608048285</v>
+        <v>0.0005932435525641822</v>
       </c>
       <c r="I7">
-        <v>0.002679300319679889</v>
+        <v>0.003318818725849049</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2414793329926184</v>
+        <v>0.2197858723005801</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1446095523836064</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03920622658406003</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6777571344687843</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7480706658014</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.404255275354984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6769705214271511</v>
+      </c>
+      <c r="R7">
+        <v>0.7485609927473291</v>
+      </c>
+      <c r="S7">
+        <v>1.305838125150814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.749551609787829</v>
+        <v>1.683304607139917</v>
       </c>
       <c r="C8">
-        <v>0.5441529026952878</v>
+        <v>0.5723288067995611</v>
       </c>
       <c r="D8">
-        <v>0.0426433686567762</v>
+        <v>0.04594715709034602</v>
       </c>
       <c r="E8">
-        <v>0.2824214384047039</v>
+        <v>0.2847298477790048</v>
       </c>
       <c r="F8">
-        <v>0.5359713111442375</v>
+        <v>0.4967180899731574</v>
       </c>
       <c r="G8">
-        <v>0.0007907694460538945</v>
+        <v>0.001649186236691413</v>
       </c>
       <c r="H8">
-        <v>0.001585474180704871</v>
+        <v>0.001631389828094409</v>
       </c>
       <c r="I8">
-        <v>0.004473903532722368</v>
+        <v>0.004864551496236658</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.246214243830817</v>
+        <v>0.2199980760632556</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1383490892783605</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04361899753744503</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8178825965625052</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7305835950983663</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.544987901799203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8141577417216368</v>
+      </c>
+      <c r="R8">
+        <v>0.7436928422634139</v>
+      </c>
+      <c r="S8">
+        <v>1.410880605679864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.339817087357233</v>
+        <v>2.231015440113879</v>
       </c>
       <c r="C9">
-        <v>0.7090737542525005</v>
+        <v>0.7544588573185251</v>
       </c>
       <c r="D9">
-        <v>0.05424169128188083</v>
+        <v>0.06002829862411119</v>
       </c>
       <c r="E9">
-        <v>0.3616937208551576</v>
+        <v>0.3609194121824402</v>
       </c>
       <c r="F9">
-        <v>0.6593186383139198</v>
+        <v>0.606393913992477</v>
       </c>
       <c r="G9">
-        <v>0.0007832970689426766</v>
+        <v>0.004408385346261312</v>
       </c>
       <c r="H9">
-        <v>0.005160974390209239</v>
+        <v>0.004890839017758108</v>
       </c>
       <c r="I9">
-        <v>0.009082419503958938</v>
+        <v>0.008537242275161283</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2593108950781406</v>
+        <v>0.2270610378627502</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1294556139350291</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05794520288428373</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.093074540993548</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6998911190183534</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.842235564671228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.086895312110805</v>
+      </c>
+      <c r="R9">
+        <v>0.7335588286216748</v>
+      </c>
+      <c r="S9">
+        <v>1.667344155195451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.769953806988383</v>
+        <v>2.608199518265565</v>
       </c>
       <c r="C10">
-        <v>0.8311232765810246</v>
+        <v>0.8736458177304769</v>
       </c>
       <c r="D10">
-        <v>0.06366887992278691</v>
+        <v>0.07334440917880869</v>
       </c>
       <c r="E10">
-        <v>0.392650926669404</v>
+        <v>0.3913969206247856</v>
       </c>
       <c r="F10">
-        <v>0.7445203300901824</v>
+        <v>0.6630207771250127</v>
       </c>
       <c r="G10">
-        <v>0.0007782220638109637</v>
+        <v>0.01420316911913488</v>
       </c>
       <c r="H10">
-        <v>0.008654539203543532</v>
+        <v>0.007941041481302147</v>
       </c>
       <c r="I10">
-        <v>0.01350128993121835</v>
+        <v>0.01187580515989062</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2661514450424427</v>
+        <v>0.2231202762643036</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1198143017581828</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06703875642280721</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.257405244837486</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6865022131702716</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.040950794755901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.242943194527214</v>
+      </c>
+      <c r="R10">
+        <v>0.7442865485416661</v>
+      </c>
+      <c r="S10">
+        <v>1.775216269246187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.965705638178804</v>
+        <v>2.752587857845811</v>
       </c>
       <c r="C11">
-        <v>0.8737359440855528</v>
+        <v>0.8823068177529194</v>
       </c>
       <c r="D11">
-        <v>0.07548812132274918</v>
+        <v>0.09104861444729551</v>
       </c>
       <c r="E11">
-        <v>0.2119260914076015</v>
+        <v>0.2115298832657118</v>
       </c>
       <c r="F11">
-        <v>0.7137804753215704</v>
+        <v>0.5982710947699914</v>
       </c>
       <c r="G11">
-        <v>0.0007767493174932684</v>
+        <v>0.04790081459391615</v>
       </c>
       <c r="H11">
-        <v>0.02616204163053482</v>
+        <v>0.0253110996490733</v>
       </c>
       <c r="I11">
-        <v>0.01534942963468211</v>
+        <v>0.01323241513357054</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2375353006064032</v>
+        <v>0.1869458149028205</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1040109293072682</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05685903108957646</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.016278811803915</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.735169551399288</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.900421037837134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9912661192516978</v>
+      </c>
+      <c r="R11">
+        <v>0.8290190444753449</v>
+      </c>
+      <c r="S11">
+        <v>1.530287682883909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.046269582320292</v>
+        <v>2.813603140602083</v>
       </c>
       <c r="C12">
-        <v>0.8802421901073956</v>
+        <v>0.8700689568937037</v>
       </c>
       <c r="D12">
-        <v>0.08377792441273613</v>
+        <v>0.1024733292242814</v>
       </c>
       <c r="E12">
-        <v>0.1119754546842557</v>
+        <v>0.1098090096254438</v>
       </c>
       <c r="F12">
-        <v>0.6723632249667872</v>
+        <v>0.5463726216544913</v>
       </c>
       <c r="G12">
-        <v>0.0007764455968242962</v>
+        <v>0.07203616557865189</v>
       </c>
       <c r="H12">
-        <v>0.06382157533834487</v>
+        <v>0.06298098664939999</v>
       </c>
       <c r="I12">
-        <v>0.01565544537859065</v>
+        <v>0.01335896363852207</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2145165535126061</v>
+        <v>0.1643494969880273</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09545258748830499</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04886936506260398</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8025241231163065</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7853677031644679</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.750506853773373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7756585191786627</v>
+      </c>
+      <c r="R12">
+        <v>0.9011423651620873</v>
+      </c>
+      <c r="S12">
+        <v>1.352945575655298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.036837733621098</v>
+        <v>2.818519889306458</v>
       </c>
       <c r="C13">
-        <v>0.8626853251165869</v>
+        <v>0.8507926504737497</v>
       </c>
       <c r="D13">
-        <v>0.08996127790894803</v>
+        <v>0.1083030654015715</v>
       </c>
       <c r="E13">
-        <v>0.06745508893295415</v>
+        <v>0.062651770263769</v>
       </c>
       <c r="F13">
-        <v>0.6178855369110394</v>
+        <v>0.5042859643968214</v>
       </c>
       <c r="G13">
-        <v>0.000777042166935582</v>
+        <v>0.06583751749693434</v>
       </c>
       <c r="H13">
-        <v>0.1184823599436413</v>
+        <v>0.1177601928537086</v>
       </c>
       <c r="I13">
-        <v>0.01504408718162775</v>
+        <v>0.01292876824391698</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1927102296042911</v>
+        <v>0.1500599505271012</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09098305929180306</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0423120089246023</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5986296016179793</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8396424288972923</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.576569591695574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5767942581594028</v>
+      </c>
+      <c r="R13">
+        <v>0.958229415865901</v>
+      </c>
+      <c r="S13">
+        <v>1.223532345987138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.988428629564908</v>
+        <v>2.79522685829528</v>
       </c>
       <c r="C14">
-        <v>0.8402710105865481</v>
+        <v>0.8344125776017677</v>
       </c>
       <c r="D14">
-        <v>0.09340187527861588</v>
+        <v>0.1098048177620399</v>
       </c>
       <c r="E14">
-        <v>0.06885685387788598</v>
+        <v>0.06271943405663372</v>
       </c>
       <c r="F14">
-        <v>0.5738241714064998</v>
+        <v>0.4779487989168274</v>
       </c>
       <c r="G14">
-        <v>0.0007778626867737005</v>
+        <v>0.04890691378069079</v>
       </c>
       <c r="H14">
-        <v>0.1670834393560199</v>
+        <v>0.1664769111383038</v>
       </c>
       <c r="I14">
-        <v>0.01429086782728817</v>
+        <v>0.01246672329240184</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1779778431733838</v>
+        <v>0.143024395242044</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08927887100056076</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03820784963378898</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4649105738822499</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8802490021667069</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.444115856683652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4485608838268149</v>
+      </c>
+      <c r="R14">
+        <v>0.9906639641394577</v>
+      </c>
+      <c r="S14">
+        <v>1.149593654515058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.955903776173045</v>
+        <v>2.775357448983357</v>
       </c>
       <c r="C15">
-        <v>0.8306034433775267</v>
+        <v>0.8292750823099198</v>
       </c>
       <c r="D15">
-        <v>0.09378015862963451</v>
+        <v>0.1089935024294277</v>
       </c>
       <c r="E15">
-        <v>0.07327050292157899</v>
+        <v>0.06711861562050103</v>
       </c>
       <c r="F15">
-        <v>0.5598388733138933</v>
+        <v>0.4721720965219802</v>
       </c>
       <c r="G15">
-        <v>0.0007782735855880162</v>
+        <v>0.04038776754915574</v>
       </c>
       <c r="H15">
-        <v>0.1793208734497682</v>
+        <v>0.178763878351873</v>
       </c>
       <c r="I15">
-        <v>0.01400310111429359</v>
+        <v>0.01234431261288815</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1742409046052416</v>
+        <v>0.1422534296025439</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08937907568594738</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03724844206175781</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4316425175831711</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8904414808811651</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.404948006152409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4174194851354613</v>
+      </c>
+      <c r="R15">
+        <v>0.9946036167036425</v>
+      </c>
+      <c r="S15">
+        <v>1.136465614369826</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.770058000714016</v>
+        <v>2.643756711351557</v>
       </c>
       <c r="C16">
-        <v>0.783133597033526</v>
+        <v>0.8066641256376386</v>
       </c>
       <c r="D16">
-        <v>0.08830592563185746</v>
+        <v>0.09773279045734284</v>
       </c>
       <c r="E16">
-        <v>0.07041270929743781</v>
+        <v>0.0662944633600695</v>
       </c>
       <c r="F16">
-        <v>0.5338294393144878</v>
+        <v>0.4789960813374137</v>
       </c>
       <c r="G16">
-        <v>0.0007803101570291418</v>
+        <v>0.01190071481064692</v>
       </c>
       <c r="H16">
-        <v>0.1654400779361822</v>
+        <v>0.1650894894988966</v>
       </c>
       <c r="I16">
-        <v>0.01225720900392169</v>
+        <v>0.01126213017734834</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1751157300618083</v>
+        <v>0.1524344269087941</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0949803266982876</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03794381778853229</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4091707999870238</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8818391960817138</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.353521459459103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4022802136612214</v>
+      </c>
+      <c r="R16">
+        <v>0.9517376451888566</v>
+      </c>
+      <c r="S16">
+        <v>1.185399111593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.653398128631579</v>
+        <v>2.54892777645415</v>
       </c>
       <c r="C17">
-        <v>0.7587706078376186</v>
+        <v>0.7942041709203238</v>
       </c>
       <c r="D17">
-        <v>0.08229289924891958</v>
+        <v>0.08925697399848076</v>
       </c>
       <c r="E17">
-        <v>0.06214323012634493</v>
+        <v>0.05918160993540278</v>
       </c>
       <c r="F17">
-        <v>0.5371950797431992</v>
+        <v>0.4949423444147172</v>
       </c>
       <c r="G17">
-        <v>0.0007814486084440447</v>
+        <v>0.005740224130474481</v>
       </c>
       <c r="H17">
-        <v>0.1271533902824018</v>
+        <v>0.126890053646548</v>
       </c>
       <c r="I17">
-        <v>0.01135820568744883</v>
+        <v>0.01068373414535984</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1835147445060699</v>
+        <v>0.1634801847359668</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1003530241805972</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0401947682206405</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4596181117552192</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8538807430506949</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.383881959064638</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4555263689408591</v>
+      </c>
+      <c r="R17">
+        <v>0.9079608356119167</v>
+      </c>
+      <c r="S17">
+        <v>1.253255526470753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.585951062103391</v>
+        <v>2.486682133718489</v>
       </c>
       <c r="C18">
-        <v>0.7495514036465636</v>
+        <v>0.7927618872710411</v>
       </c>
       <c r="D18">
-        <v>0.07519097440956557</v>
+        <v>0.08118825618770131</v>
       </c>
       <c r="E18">
-        <v>0.0765639027409275</v>
+        <v>0.07407881345211642</v>
       </c>
       <c r="F18">
-        <v>0.567541979508448</v>
+        <v>0.5279289270725869</v>
       </c>
       <c r="G18">
-        <v>0.0007818739738611469</v>
+        <v>0.00434279401127835</v>
       </c>
       <c r="H18">
-        <v>0.07447457735148078</v>
+        <v>0.0742294716286338</v>
       </c>
       <c r="I18">
-        <v>0.01082306001710798</v>
+        <v>0.01021693736160945</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2005458185023201</v>
+        <v>0.1793387222210008</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1070832271378723</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04511711625178094</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5912082970644761</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8081217191295167</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.493492295869771</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5880353706330368</v>
+      </c>
+      <c r="R18">
+        <v>0.8544506526449283</v>
+      </c>
+      <c r="S18">
+        <v>1.3690525820777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.556536815316463</v>
+        <v>2.452609615945676</v>
       </c>
       <c r="C19">
-        <v>0.7574371588071926</v>
+        <v>0.8070738140460492</v>
       </c>
       <c r="D19">
-        <v>0.06835266480577218</v>
+        <v>0.07419462997381032</v>
       </c>
       <c r="E19">
-        <v>0.1506568090583436</v>
+        <v>0.1482159585780387</v>
       </c>
       <c r="F19">
-        <v>0.6156017268703522</v>
+        <v>0.5728435891716828</v>
       </c>
       <c r="G19">
-        <v>0.0007816473130650513</v>
+        <v>0.004273232054955667</v>
       </c>
       <c r="H19">
-        <v>0.03019710918211871</v>
+        <v>0.02991070155939468</v>
       </c>
       <c r="I19">
-        <v>0.01110119191963133</v>
+        <v>0.0104868120397672</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2225996562156141</v>
+        <v>0.1978859032918159</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1143206955007123</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05186448653523357</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7987080790203507</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7587575679526992</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.654642592910619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7953066347501547</v>
+      </c>
+      <c r="R19">
+        <v>0.8016032169207605</v>
+      </c>
+      <c r="S19">
+        <v>1.517994956023074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.64649636686778</v>
+        <v>2.512133773366031</v>
       </c>
       <c r="C20">
-        <v>0.8057479686328577</v>
+        <v>0.8586469298591339</v>
       </c>
       <c r="D20">
-        <v>0.06168476693550673</v>
+        <v>0.06913005338278566</v>
       </c>
       <c r="E20">
-        <v>0.3832551488578062</v>
+        <v>0.3810050474310032</v>
       </c>
       <c r="F20">
-        <v>0.7168120660478934</v>
+        <v>0.6541843451243636</v>
       </c>
       <c r="G20">
-        <v>0.0007795792827575143</v>
+        <v>0.007181011259023151</v>
       </c>
       <c r="H20">
-        <v>0.007619853134962273</v>
+        <v>0.007074720532386891</v>
       </c>
       <c r="I20">
-        <v>0.01287990035002728</v>
+        <v>0.01180944710473142</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2607935086314868</v>
+        <v>0.2249549931422017</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1225650168928709</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06488375302782501</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.212487485143981</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6929193360304708</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.970990182456973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.204107994575665</v>
+      </c>
+      <c r="R20">
+        <v>0.7397481545555209</v>
+      </c>
+      <c r="S20">
+        <v>1.76684670018517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.977063754459039</v>
+        <v>2.731413634656576</v>
       </c>
       <c r="C21">
-        <v>0.9016656751327616</v>
+        <v>0.9042691056955334</v>
       </c>
       <c r="D21">
-        <v>0.06762525740566616</v>
+        <v>0.0848395473398682</v>
       </c>
       <c r="E21">
-        <v>0.4497010675255879</v>
+        <v>0.4536974990294596</v>
       </c>
       <c r="F21">
-        <v>0.7965685192042571</v>
+        <v>0.6528737938744626</v>
       </c>
       <c r="G21">
-        <v>0.0007756212396650097</v>
+        <v>0.06941836329126261</v>
       </c>
       <c r="H21">
-        <v>0.01098776957584929</v>
+        <v>0.009801608459906491</v>
       </c>
       <c r="I21">
-        <v>0.01664713896332071</v>
+        <v>0.01416842403979679</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2728283782293701</v>
+        <v>0.207401617814476</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1105847428151208</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06614341775634358</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.398415609580027</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6751782366801535</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.1709401656735</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.362279752965946</v>
+      </c>
+      <c r="R21">
+        <v>0.7685275596237915</v>
+      </c>
+      <c r="S21">
+        <v>1.702531443655971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.197611125865762</v>
+        <v>2.872818882617707</v>
       </c>
       <c r="C22">
-        <v>0.9609755108253353</v>
+        <v>0.9266261229842314</v>
       </c>
       <c r="D22">
-        <v>0.07173169660110545</v>
+        <v>0.09632696003713193</v>
       </c>
       <c r="E22">
-        <v>0.4792600227782486</v>
+        <v>0.4882537923844907</v>
       </c>
       <c r="F22">
-        <v>0.8474942415428188</v>
+        <v>0.6467333102560815</v>
       </c>
       <c r="G22">
-        <v>0.000773119301820934</v>
+        <v>0.1596006300684678</v>
       </c>
       <c r="H22">
-        <v>0.01334210819806075</v>
+        <v>0.01167517861210965</v>
       </c>
       <c r="I22">
-        <v>0.01906615515477572</v>
+        <v>0.01549000878352658</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2805619126216428</v>
+        <v>0.1948534402217383</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.10300602082933</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06634471606644254</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.500715134330406</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6657320941127978</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.297244577896805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.444353936470833</v>
+      </c>
+      <c r="R22">
+        <v>0.7946881365039502</v>
+      </c>
+      <c r="S22">
+        <v>1.644663087114537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.083995219275209</v>
+        <v>2.810813604164764</v>
       </c>
       <c r="C23">
-        <v>0.9266554006222236</v>
+        <v>0.9186971121299052</v>
       </c>
       <c r="D23">
-        <v>0.06936263251709107</v>
+        <v>0.08895316089861893</v>
       </c>
       <c r="E23">
-        <v>0.4634998246765534</v>
+        <v>0.4688137802179639</v>
       </c>
       <c r="F23">
-        <v>0.8220502530934368</v>
+        <v>0.6593139196771034</v>
       </c>
       <c r="G23">
-        <v>0.0007744352977689239</v>
+        <v>0.09329985018928966</v>
       </c>
       <c r="H23">
-        <v>0.01206861537078047</v>
+        <v>0.01068704978926557</v>
       </c>
       <c r="I23">
-        <v>0.01751496196135793</v>
+        <v>0.01451102531792081</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2776604966080392</v>
+        <v>0.2051211655396656</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1081666824318983</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06779823325939915</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.446150963466394</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6695650983399517</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.235699514629232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.403540303118916</v>
+      </c>
+      <c r="R23">
+        <v>0.774545200782967</v>
+      </c>
+      <c r="S23">
+        <v>1.705626446349783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.646782955355548</v>
+        <v>2.5124459272933</v>
       </c>
       <c r="C24">
-        <v>0.8017163794468445</v>
+        <v>0.8553929924952115</v>
       </c>
       <c r="D24">
-        <v>0.06069515589545915</v>
+        <v>0.0680336610594523</v>
       </c>
       <c r="E24">
-        <v>0.4040056948453454</v>
+        <v>0.4017131060047561</v>
       </c>
       <c r="F24">
-        <v>0.7245072418744911</v>
+        <v>0.6618415921803802</v>
       </c>
       <c r="G24">
-        <v>0.0007795454976643147</v>
+        <v>0.007045667294957703</v>
       </c>
       <c r="H24">
-        <v>0.007737750109164665</v>
+        <v>0.007183641315701372</v>
       </c>
       <c r="I24">
-        <v>0.01249414612045463</v>
+        <v>0.01131891940578544</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2653741790763782</v>
+        <v>0.2290422663177125</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1241567041186364</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06637418120840977</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.239965590626383</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6873504737637077</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.997819564130822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.231676420243645</v>
+      </c>
+      <c r="R24">
+        <v>0.7329831067694741</v>
+      </c>
+      <c r="S24">
+        <v>1.793151403981483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.174464219628419</v>
+        <v>2.082719109250888</v>
       </c>
       <c r="C25">
-        <v>0.6681418623491027</v>
+        <v>0.7126172693079695</v>
       </c>
       <c r="D25">
-        <v>0.05136237195785043</v>
+        <v>0.0560142763714353</v>
       </c>
       <c r="E25">
-        <v>0.3401820245587928</v>
+        <v>0.3398049668163097</v>
       </c>
       <c r="F25">
-        <v>0.6226694623977451</v>
+        <v>0.5781935503703934</v>
       </c>
       <c r="G25">
-        <v>0.0007852873781396044</v>
+        <v>0.002642379100552095</v>
       </c>
       <c r="H25">
-        <v>0.004014877800777028</v>
+        <v>0.003870265937519379</v>
       </c>
       <c r="I25">
-        <v>0.008003530005434634</v>
+        <v>0.007875421061137367</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2536095673824903</v>
+        <v>0.224913902109968</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1317495729810076</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05357675454402155</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.018457098609126</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.709229371030581</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.751045940434238</v>
+        <v>1.014531314950041</v>
+      </c>
+      <c r="R25">
+        <v>0.7357658609242179</v>
+      </c>
+      <c r="S25">
+        <v>1.603069972268713</v>
       </c>
     </row>
   </sheetData>
